--- a/data/shale well flow data.xlsx
+++ b/data/shale well flow data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuesong.wang1\OneDrive - Wood PLC\Projects\2019\Jafurah FEED\PSIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuesong.wang1\OneDrive - Wood PLC\Work\PythonPractice\ShaleWell\Shale_well_Machine_Learning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CE4B0BE9-D509-4CEC-884F-80163BBF9FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7A1A838-3DFC-42DA-9269-0B2EF4AA218E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B5A61222-0113-49C8-B294-218DBC42F1DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B5A61222-0113-49C8-B294-218DBC42F1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Alpha" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -16738,15 +16740,15 @@
       <selection activeCell="B2" sqref="B2:F261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="11.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -16766,7 +16768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16786,7 +16788,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16806,7 +16808,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16826,7 +16828,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16846,7 +16848,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16866,7 +16868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16886,7 +16888,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16906,7 +16908,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16926,7 +16928,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16946,7 +16948,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16966,7 +16968,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16986,7 +16988,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17006,7 +17008,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17030,7 +17032,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17054,7 +17056,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17078,7 +17080,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17102,7 +17104,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17126,7 +17128,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -17150,7 +17152,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17174,7 +17176,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17198,7 +17200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -17222,7 +17224,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17246,7 +17248,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17270,7 +17272,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17294,7 +17296,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17318,7 +17320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17342,7 +17344,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17366,7 +17368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17390,7 +17392,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17414,7 +17416,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17438,7 +17440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17462,7 +17464,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17486,7 +17488,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17510,7 +17512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17534,7 +17536,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17558,7 +17560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17582,7 +17584,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17606,7 +17608,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17630,7 +17632,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17654,7 +17656,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17678,7 +17680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17702,7 +17704,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -17726,7 +17728,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -17750,7 +17752,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -17774,7 +17776,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -17798,7 +17800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -17822,7 +17824,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -17846,7 +17848,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -17870,7 +17872,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17894,7 +17896,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17918,7 +17920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17942,7 +17944,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -17962,7 +17964,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17986,7 +17988,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18010,7 +18012,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18034,7 +18036,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18058,7 +18060,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18082,7 +18084,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18106,7 +18108,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18130,7 +18132,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18154,7 +18156,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18178,7 +18180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18202,7 +18204,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18226,7 +18228,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18250,7 +18252,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18274,7 +18276,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18298,7 +18300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18322,7 +18324,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18346,7 +18348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18370,7 +18372,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18394,7 +18396,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18418,7 +18420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18466,7 +18468,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18490,7 +18492,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18514,7 +18516,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18538,7 +18540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18562,7 +18564,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18586,7 +18588,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18610,7 +18612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18634,7 +18636,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -18658,7 +18660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -18682,7 +18684,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -18706,7 +18708,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -18730,7 +18732,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -18754,7 +18756,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -18778,7 +18780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -18802,7 +18804,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -18826,7 +18828,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -18850,7 +18852,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -18874,7 +18876,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -18898,7 +18900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -18922,7 +18924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -18946,7 +18948,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -18970,7 +18972,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -18994,7 +18996,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -19018,7 +19020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -19042,7 +19044,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -19066,7 +19068,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -19090,7 +19092,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -19114,7 +19116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -19138,7 +19140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -19162,7 +19164,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -19206,7 +19208,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -19230,7 +19232,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -19254,7 +19256,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -19278,7 +19280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -19302,7 +19304,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -19326,7 +19328,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -19350,7 +19352,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -19374,7 +19376,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -19398,7 +19400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -19422,7 +19424,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -19446,7 +19448,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -19470,7 +19472,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19494,7 +19496,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19518,7 +19520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19542,7 +19544,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -19566,7 +19568,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -19590,7 +19592,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -19614,7 +19616,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -19638,7 +19640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -19662,7 +19664,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -19686,7 +19688,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -19710,7 +19712,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -19734,7 +19736,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -19758,7 +19760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -19782,7 +19784,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -19806,7 +19808,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -19830,7 +19832,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -19854,7 +19856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -19878,7 +19880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -19902,7 +19904,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -19926,7 +19928,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -19950,7 +19952,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -19974,7 +19976,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -19998,7 +20000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -20022,7 +20024,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -20046,7 +20048,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -20070,7 +20072,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -20094,7 +20096,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -20118,7 +20120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -20142,7 +20144,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -20166,7 +20168,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -20190,7 +20192,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -20214,7 +20216,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -20238,7 +20240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -20262,7 +20264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -20286,7 +20288,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -20310,7 +20312,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -20334,7 +20336,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -20358,7 +20360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -20382,7 +20384,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -20406,7 +20408,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -20430,7 +20432,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -20451,7 +20453,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -20475,7 +20477,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -20499,7 +20501,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -20523,7 +20525,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -20547,7 +20549,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -20571,7 +20573,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -20595,7 +20597,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -20619,7 +20621,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -20643,7 +20645,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -20667,7 +20669,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -20691,7 +20693,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -20715,7 +20717,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -20739,7 +20741,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -20763,7 +20765,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -20787,7 +20789,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -20811,7 +20813,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -20835,7 +20837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -20859,7 +20861,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -20883,7 +20885,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -20907,7 +20909,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -20931,7 +20933,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -20955,7 +20957,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -20979,7 +20981,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -21003,7 +21005,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -21027,7 +21029,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -21051,7 +21053,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -21075,7 +21077,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -21099,7 +21101,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -21123,7 +21125,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -21147,7 +21149,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -21171,7 +21173,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -21195,7 +21197,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -21219,7 +21221,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -21243,7 +21245,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -21267,7 +21269,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -21291,7 +21293,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -21315,7 +21317,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21339,7 +21341,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21363,7 +21365,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21387,7 +21389,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21411,7 +21413,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21435,7 +21437,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -21459,7 +21461,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -21483,7 +21485,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -21507,7 +21509,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -21531,7 +21533,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -21555,7 +21557,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -21579,7 +21581,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -21603,7 +21605,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -21627,7 +21629,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -21651,7 +21653,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -21675,7 +21677,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -21695,7 +21697,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -21718,7 +21720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -21741,7 +21743,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -21764,7 +21766,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -21787,7 +21789,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -21810,7 +21812,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -21833,7 +21835,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -21856,7 +21858,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -21879,7 +21881,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -21902,7 +21904,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -21925,7 +21927,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -21948,7 +21950,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -21971,7 +21973,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -21994,7 +21996,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -22017,7 +22019,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -22040,7 +22042,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -22063,7 +22065,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -22086,7 +22088,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -22109,7 +22111,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -22132,7 +22134,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -22155,7 +22157,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -22178,7 +22180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -22201,7 +22203,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -22224,7 +22226,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -22247,7 +22249,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -22270,7 +22272,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -22293,7 +22295,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -22316,7 +22318,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -22339,7 +22341,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -22362,7 +22364,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -22385,7 +22387,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -22408,7 +22410,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -22431,7 +22433,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -22454,7 +22456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -22477,7 +22479,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -22500,7 +22502,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -22523,7 +22525,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -22546,7 +22548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -22569,7 +22571,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -22592,7 +22594,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -22615,7 +22617,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -22638,7 +22640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -22661,7 +22663,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -22684,7 +22686,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -22707,7 +22709,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -22730,7 +22732,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22753,7 +22755,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22776,7 +22778,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -22799,7 +22801,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22822,7 +22824,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22845,7 +22847,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22868,7 +22870,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22902,9 +22904,9 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -22921,7 +22923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22941,7 +22943,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22958,7 +22960,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22975,7 +22977,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22992,7 +22994,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23009,7 +23011,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23026,7 +23028,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23043,7 +23045,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23060,7 +23062,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23077,7 +23079,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23094,7 +23096,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23108,7 +23110,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23128,7 +23130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>52</v>
       </c>
@@ -23148,7 +23150,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>104</v>
       </c>
@@ -23165,7 +23167,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>156</v>
       </c>
@@ -23182,7 +23184,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>208</v>
       </c>
@@ -23199,7 +23201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>260</v>
       </c>
@@ -23226,19 +23228,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E042595-2444-4E29-B3EA-33567BD964AD}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="11.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -23258,7 +23260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23278,7 +23280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23298,7 +23300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23318,7 +23320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23338,7 +23340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23358,7 +23360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23378,7 +23380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23398,7 +23400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23418,7 +23420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23438,7 +23440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23458,7 +23460,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23478,7 +23480,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23498,7 +23500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23518,7 +23520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23538,7 +23540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23558,7 +23560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23578,7 +23580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23598,7 +23600,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23618,7 +23620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23638,7 +23640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23658,7 +23660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23678,7 +23680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23698,7 +23700,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23718,7 +23720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23738,7 +23740,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -23758,7 +23760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -23778,7 +23780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -23798,7 +23800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -23818,7 +23820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23838,7 +23840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -23858,7 +23860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -23878,7 +23880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -23898,7 +23900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -23918,7 +23920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -23938,7 +23940,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -23958,7 +23960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -23978,7 +23980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -23998,7 +24000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24018,7 +24020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24038,7 +24040,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24058,7 +24060,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24078,7 +24080,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24098,7 +24100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -24118,7 +24120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24138,7 +24140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24158,7 +24160,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24178,7 +24180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -24198,7 +24200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -24218,7 +24220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -24238,7 +24240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -24258,7 +24260,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -24278,7 +24280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -24298,7 +24300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -24318,7 +24320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -24338,7 +24340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -24358,7 +24360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -24378,7 +24380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -24398,7 +24400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -24418,7 +24420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -24438,7 +24440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -24458,7 +24460,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -24478,7 +24480,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -24498,7 +24500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -24518,7 +24520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -24538,7 +24540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -24558,7 +24560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -24578,7 +24580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -24598,7 +24600,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -24618,7 +24620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -24638,7 +24640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -24658,7 +24660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -24678,7 +24680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -24698,7 +24700,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -24718,7 +24720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -24738,7 +24740,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -24758,7 +24760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -24778,7 +24780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -24798,7 +24800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -24818,7 +24820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -24838,7 +24840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -24858,7 +24860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -24878,7 +24880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -24898,7 +24900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -24918,7 +24920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -24938,7 +24940,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -24958,7 +24960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -24978,7 +24980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -24998,7 +25000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -25018,7 +25020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -25038,7 +25040,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -25058,7 +25060,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -25078,7 +25080,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -25098,7 +25100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -25118,7 +25120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -25138,7 +25140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -25158,7 +25160,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -25178,7 +25180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -25198,7 +25200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -25218,7 +25220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -25238,7 +25240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -25258,7 +25260,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -25278,7 +25280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -25298,7 +25300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -25318,7 +25320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -25338,7 +25340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -25358,7 +25360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -25378,7 +25380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -25398,7 +25400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -25418,7 +25420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -25438,7 +25440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -25458,7 +25460,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -25478,7 +25480,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -25498,7 +25500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -25518,7 +25520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -25538,7 +25540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -25558,7 +25560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -25578,7 +25580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -25598,7 +25600,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -25618,7 +25620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -25638,7 +25640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -25658,7 +25660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -25678,7 +25680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -25698,7 +25700,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -25718,7 +25720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -25738,7 +25740,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -25758,7 +25760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -25778,7 +25780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -25798,7 +25800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -25818,7 +25820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -25838,7 +25840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -25858,7 +25860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -25878,7 +25880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -25898,7 +25900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -25918,7 +25920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -25938,7 +25940,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -25958,7 +25960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -25978,7 +25980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -25998,7 +26000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -26018,7 +26020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -26038,7 +26040,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -26058,7 +26060,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -26078,7 +26080,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -26098,7 +26100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -26118,7 +26120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -26138,7 +26140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -26158,7 +26160,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -26178,7 +26180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -26198,7 +26200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -26218,7 +26220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -26238,7 +26240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -26258,7 +26260,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -26278,7 +26280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -26298,7 +26300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -26318,7 +26320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -26338,7 +26340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -26358,7 +26360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -26378,7 +26380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -26398,7 +26400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -26418,7 +26420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -26438,7 +26440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -26458,7 +26460,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -26478,7 +26480,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -26498,7 +26500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -26518,7 +26520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -26538,7 +26540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -26558,7 +26560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -26578,7 +26580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -26598,7 +26600,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -26618,7 +26620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -26638,7 +26640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -26658,7 +26660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -26678,7 +26680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -26698,7 +26700,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -26718,7 +26720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -26738,7 +26740,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -26758,7 +26760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -26778,7 +26780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -26798,7 +26800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -26818,7 +26820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -26838,7 +26840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -26858,7 +26860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -26878,7 +26880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -26898,7 +26900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -26918,7 +26920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -26938,7 +26940,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -26958,7 +26960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -26978,7 +26980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -26998,7 +27000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -27018,7 +27020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -27038,7 +27040,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -27058,7 +27060,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -27078,7 +27080,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -27098,7 +27100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -27118,7 +27120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -27138,7 +27140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -27158,7 +27160,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -27178,7 +27180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -27198,7 +27200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -27218,7 +27220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -27238,7 +27240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -27258,7 +27260,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -27278,7 +27280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -27298,7 +27300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -27318,7 +27320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -27338,7 +27340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -27358,7 +27360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -27378,7 +27380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -27398,7 +27400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -27418,7 +27420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -27438,7 +27440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -27458,7 +27460,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -27478,7 +27480,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -27498,7 +27500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -27518,7 +27520,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -27538,7 +27540,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -27558,7 +27560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -27578,7 +27580,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -27598,7 +27600,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -27618,7 +27620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -27638,7 +27640,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -27658,7 +27660,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -27678,7 +27680,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -27698,7 +27700,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -27718,7 +27720,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -27738,7 +27740,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -27758,7 +27760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -27778,7 +27780,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -27798,7 +27800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -27818,7 +27820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -27838,7 +27840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -27858,7 +27860,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -27878,7 +27880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -27898,7 +27900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -27918,7 +27920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -27938,7 +27940,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -27958,7 +27960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -27978,7 +27980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -27998,7 +28000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -28018,7 +28020,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -28038,7 +28040,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -28058,7 +28060,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -28078,7 +28080,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -28098,7 +28100,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -28118,7 +28120,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -28138,7 +28140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -28158,7 +28160,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -28178,7 +28180,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -28198,7 +28200,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -28218,7 +28220,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -28238,7 +28240,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -28258,7 +28260,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -28278,7 +28280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -28298,7 +28300,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -28318,7 +28320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -28338,7 +28340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -28358,7 +28360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -28378,7 +28380,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -28398,7 +28400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -28418,7 +28420,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -28438,7 +28440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
